--- a/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -12,10 +12,10 @@
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
-    <sheet name="August" sheetId="6" r:id="rId1"/>
+    <sheet name="September" sheetId="6" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">August!$A$1:$K$45</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">September!$A$1:$K$45</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -675,72 +675,72 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1082,8 +1082,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="G42" sqref="G42"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,118 +1104,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
+      <c r="C1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="40" t="s">
+      <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="40"/>
-      <c r="E2" s="40"/>
-      <c r="F2" s="40"/>
-      <c r="G2" s="40"/>
-      <c r="H2" s="40"/>
-      <c r="I2" s="40"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="29" t="s">
+      <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="29"/>
-      <c r="E4" s="30" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="41" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="41"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="29"/>
-      <c r="E6" s="30" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="30"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="42" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
-      <c r="I8" s="42"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1229,10 +1229,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="32" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="34" t="s">
+      <c r="B10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1252,16 +1252,16 @@
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="43" t="s">
+      <c r="J10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="38" t="s">
+      <c r="K10" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="35"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1279,12 +1279,12 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="44"/>
-      <c r="K11" s="39"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="33"/>
-      <c r="B12" s="35"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1312,19 +1312,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="33"/>
-      <c r="B13" s="35"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="34"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="H13" s="36"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="36"/>
-      <c r="K13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1468,16 +1468,16 @@
       <c r="C18" s="13" t="s">
         <v>42</v>
       </c>
-      <c r="D18" s="45">
-        <v>3</v>
-      </c>
-      <c r="E18" s="45">
-        <v>3</v>
-      </c>
-      <c r="F18" s="45">
-        <v>3</v>
-      </c>
-      <c r="G18" s="45">
+      <c r="D18" s="28">
+        <v>3</v>
+      </c>
+      <c r="E18" s="28">
+        <v>3</v>
+      </c>
+      <c r="F18" s="28">
+        <v>3</v>
+      </c>
+      <c r="G18" s="28">
         <v>3</v>
       </c>
       <c r="H18" s="17"/>
@@ -1501,16 +1501,16 @@
       <c r="C19" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="45">
-        <v>3</v>
-      </c>
-      <c r="E19" s="45">
-        <v>3</v>
-      </c>
-      <c r="F19" s="45">
-        <v>3</v>
-      </c>
-      <c r="G19" s="45">
+      <c r="D19" s="28">
+        <v>3</v>
+      </c>
+      <c r="E19" s="28">
+        <v>3</v>
+      </c>
+      <c r="F19" s="28">
+        <v>3</v>
+      </c>
+      <c r="G19" s="28">
         <v>3</v>
       </c>
       <c r="H19" s="17"/>
@@ -1534,16 +1534,16 @@
       <c r="C20" s="13" t="s">
         <v>44</v>
       </c>
-      <c r="D20" s="45">
-        <v>0</v>
-      </c>
-      <c r="E20" s="45">
-        <v>3</v>
-      </c>
-      <c r="F20" s="45">
-        <v>3</v>
-      </c>
-      <c r="G20" s="45">
+      <c r="D20" s="28">
+        <v>0</v>
+      </c>
+      <c r="E20" s="28">
+        <v>3</v>
+      </c>
+      <c r="F20" s="28">
+        <v>3</v>
+      </c>
+      <c r="G20" s="28">
         <v>3</v>
       </c>
       <c r="H20" s="17"/>
@@ -1567,16 +1567,16 @@
       <c r="C21" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="D21" s="45">
-        <v>0</v>
-      </c>
-      <c r="E21" s="45">
-        <v>3</v>
-      </c>
-      <c r="F21" s="45">
-        <v>3</v>
-      </c>
-      <c r="G21" s="45">
+      <c r="D21" s="28">
+        <v>0</v>
+      </c>
+      <c r="E21" s="28">
+        <v>3</v>
+      </c>
+      <c r="F21" s="28">
+        <v>3</v>
+      </c>
+      <c r="G21" s="28">
         <v>3</v>
       </c>
       <c r="H21" s="17"/>
@@ -1600,16 +1600,16 @@
       <c r="C22" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D22" s="45">
-        <v>3</v>
-      </c>
-      <c r="E22" s="45">
-        <v>3</v>
-      </c>
-      <c r="F22" s="45">
-        <v>0</v>
-      </c>
-      <c r="G22" s="45">
+      <c r="D22" s="28">
+        <v>3</v>
+      </c>
+      <c r="E22" s="28">
+        <v>3</v>
+      </c>
+      <c r="F22" s="28">
+        <v>0</v>
+      </c>
+      <c r="G22" s="28">
         <v>0</v>
       </c>
       <c r="H22" s="17"/>
@@ -1633,16 +1633,16 @@
       <c r="C23" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D23" s="45">
-        <v>3</v>
-      </c>
-      <c r="E23" s="45">
-        <v>3</v>
-      </c>
-      <c r="F23" s="45">
-        <v>3</v>
-      </c>
-      <c r="G23" s="45">
+      <c r="D23" s="28">
+        <v>3</v>
+      </c>
+      <c r="E23" s="28">
+        <v>3</v>
+      </c>
+      <c r="F23" s="28">
+        <v>3</v>
+      </c>
+      <c r="G23" s="28">
         <v>3</v>
       </c>
       <c r="H23" s="17"/>
@@ -1669,16 +1669,16 @@
       <c r="D24" s="17">
         <v>0</v>
       </c>
-      <c r="E24" s="45">
-        <v>0</v>
-      </c>
-      <c r="F24" s="45">
-        <v>0</v>
-      </c>
-      <c r="G24" s="45">
-        <v>3</v>
-      </c>
-      <c r="H24" s="45"/>
+      <c r="E24" s="28">
+        <v>0</v>
+      </c>
+      <c r="F24" s="28">
+        <v>0</v>
+      </c>
+      <c r="G24" s="28">
+        <v>3</v>
+      </c>
+      <c r="H24" s="28"/>
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="1"/>
@@ -1693,31 +1693,31 @@
       <c r="A25" s="9">
         <v>12</v>
       </c>
-      <c r="B25" s="46" t="s">
+      <c r="B25" s="29" t="s">
         <v>81</v>
       </c>
-      <c r="C25" s="51"/>
-      <c r="D25" s="47">
-        <v>3</v>
-      </c>
-      <c r="E25" s="47">
-        <v>3</v>
-      </c>
-      <c r="F25" s="47">
-        <v>3</v>
-      </c>
-      <c r="G25" s="47">
-        <v>3</v>
-      </c>
-      <c r="H25" s="46" t="s">
+      <c r="C25" s="34"/>
+      <c r="D25" s="30">
+        <v>3</v>
+      </c>
+      <c r="E25" s="30">
+        <v>3</v>
+      </c>
+      <c r="F25" s="30">
+        <v>3</v>
+      </c>
+      <c r="G25" s="30">
+        <v>3</v>
+      </c>
+      <c r="H25" s="29" t="s">
         <v>82</v>
       </c>
-      <c r="I25" s="48"/>
-      <c r="J25" s="49">
+      <c r="I25" s="31"/>
+      <c r="J25" s="32">
         <f t="shared" si="1"/>
         <v>12</v>
       </c>
-      <c r="K25" s="50">
+      <c r="K25" s="33">
         <f t="shared" si="0"/>
         <v>100</v>
       </c>
@@ -1732,16 +1732,16 @@
       <c r="C26" s="15" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="45">
-        <v>0</v>
-      </c>
-      <c r="E26" s="45">
-        <v>3</v>
-      </c>
-      <c r="F26" s="45">
-        <v>3</v>
-      </c>
-      <c r="G26" s="45">
+      <c r="D26" s="28">
+        <v>0</v>
+      </c>
+      <c r="E26" s="28">
+        <v>3</v>
+      </c>
+      <c r="F26" s="28">
+        <v>3</v>
+      </c>
+      <c r="G26" s="28">
         <v>3</v>
       </c>
       <c r="H26" s="17"/>
@@ -1765,16 +1765,16 @@
       <c r="C27" s="10" t="s">
         <v>50</v>
       </c>
-      <c r="D27" s="45">
-        <v>3</v>
-      </c>
-      <c r="E27" s="45">
-        <v>3</v>
-      </c>
-      <c r="F27" s="45">
-        <v>3</v>
-      </c>
-      <c r="G27" s="45">
+      <c r="D27" s="28">
+        <v>3</v>
+      </c>
+      <c r="E27" s="28">
+        <v>3</v>
+      </c>
+      <c r="F27" s="28">
+        <v>3</v>
+      </c>
+      <c r="G27" s="28">
         <v>3</v>
       </c>
       <c r="H27" s="10"/>
@@ -1798,16 +1798,16 @@
       <c r="C28" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="D28" s="45">
-        <v>0</v>
-      </c>
-      <c r="E28" s="45">
-        <v>3</v>
-      </c>
-      <c r="F28" s="45">
-        <v>0</v>
-      </c>
-      <c r="G28" s="45">
+      <c r="D28" s="28">
+        <v>0</v>
+      </c>
+      <c r="E28" s="28">
+        <v>3</v>
+      </c>
+      <c r="F28" s="28">
+        <v>0</v>
+      </c>
+      <c r="G28" s="28">
         <v>0</v>
       </c>
       <c r="H28" s="10"/>
@@ -1831,16 +1831,16 @@
       <c r="C29" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="D29" s="45">
-        <v>0</v>
-      </c>
-      <c r="E29" s="45">
-        <v>0</v>
-      </c>
-      <c r="F29" s="45">
-        <v>0</v>
-      </c>
-      <c r="G29" s="45">
+      <c r="D29" s="28">
+        <v>0</v>
+      </c>
+      <c r="E29" s="28">
+        <v>0</v>
+      </c>
+      <c r="F29" s="28">
+        <v>0</v>
+      </c>
+      <c r="G29" s="28">
         <v>0</v>
       </c>
       <c r="H29" s="10"/>
@@ -1864,16 +1864,16 @@
       <c r="C30" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="D30" s="45">
-        <v>3</v>
-      </c>
-      <c r="E30" s="45">
-        <v>0</v>
-      </c>
-      <c r="F30" s="45">
-        <v>0</v>
-      </c>
-      <c r="G30" s="45">
+      <c r="D30" s="28">
+        <v>3</v>
+      </c>
+      <c r="E30" s="28">
+        <v>0</v>
+      </c>
+      <c r="F30" s="28">
+        <v>0</v>
+      </c>
+      <c r="G30" s="28">
         <v>0</v>
       </c>
       <c r="H30" s="17"/>
@@ -1897,16 +1897,16 @@
       <c r="C31" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="D31" s="45">
-        <v>0</v>
-      </c>
-      <c r="E31" s="45">
-        <v>0</v>
-      </c>
-      <c r="F31" s="45">
-        <v>0</v>
-      </c>
-      <c r="G31" s="45">
+      <c r="D31" s="28">
+        <v>0</v>
+      </c>
+      <c r="E31" s="28">
+        <v>0</v>
+      </c>
+      <c r="F31" s="28">
+        <v>0</v>
+      </c>
+      <c r="G31" s="28">
         <v>0</v>
       </c>
       <c r="H31" s="17"/>
@@ -1930,16 +1930,16 @@
       <c r="C32" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="D32" s="45">
-        <v>3</v>
-      </c>
-      <c r="E32" s="45">
-        <v>3</v>
-      </c>
-      <c r="F32" s="45">
-        <v>0</v>
-      </c>
-      <c r="G32" s="45">
+      <c r="D32" s="28">
+        <v>3</v>
+      </c>
+      <c r="E32" s="28">
+        <v>3</v>
+      </c>
+      <c r="F32" s="28">
+        <v>0</v>
+      </c>
+      <c r="G32" s="28">
         <v>0</v>
       </c>
       <c r="H32" s="17"/>
@@ -1963,16 +1963,16 @@
       <c r="C33" s="16" t="s">
         <v>66</v>
       </c>
-      <c r="D33" s="45">
-        <v>3</v>
-      </c>
-      <c r="E33" s="45">
-        <v>0</v>
-      </c>
-      <c r="F33" s="45">
-        <v>0</v>
-      </c>
-      <c r="G33" s="45">
+      <c r="D33" s="28">
+        <v>3</v>
+      </c>
+      <c r="E33" s="28">
+        <v>0</v>
+      </c>
+      <c r="F33" s="28">
+        <v>0</v>
+      </c>
+      <c r="G33" s="28">
         <v>0</v>
       </c>
       <c r="H33" s="17"/>
@@ -1996,16 +1996,16 @@
       <c r="C34" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="D34" s="45">
-        <v>3</v>
-      </c>
-      <c r="E34" s="45">
-        <v>3</v>
-      </c>
-      <c r="F34" s="45">
-        <v>3</v>
-      </c>
-      <c r="G34" s="45">
+      <c r="D34" s="28">
+        <v>3</v>
+      </c>
+      <c r="E34" s="28">
+        <v>3</v>
+      </c>
+      <c r="F34" s="28">
+        <v>3</v>
+      </c>
+      <c r="G34" s="28">
         <v>3</v>
       </c>
       <c r="H34" s="17"/>
@@ -2029,16 +2029,16 @@
       <c r="C35" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D35" s="45">
-        <v>3</v>
-      </c>
-      <c r="E35" s="45">
-        <v>3</v>
-      </c>
-      <c r="F35" s="45">
-        <v>3</v>
-      </c>
-      <c r="G35" s="45">
+      <c r="D35" s="28">
+        <v>3</v>
+      </c>
+      <c r="E35" s="28">
+        <v>3</v>
+      </c>
+      <c r="F35" s="28">
+        <v>3</v>
+      </c>
+      <c r="G35" s="28">
         <v>3</v>
       </c>
       <c r="H35" s="17"/>
@@ -2062,16 +2062,16 @@
       <c r="C36" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="D36" s="45">
-        <v>3</v>
-      </c>
-      <c r="E36" s="45">
-        <v>3</v>
-      </c>
-      <c r="F36" s="45">
-        <v>3</v>
-      </c>
-      <c r="G36" s="45">
+      <c r="D36" s="28">
+        <v>3</v>
+      </c>
+      <c r="E36" s="28">
+        <v>3</v>
+      </c>
+      <c r="F36" s="28">
+        <v>3</v>
+      </c>
+      <c r="G36" s="28">
         <v>3</v>
       </c>
       <c r="H36" s="17"/>
@@ -2095,16 +2095,16 @@
       <c r="C37" s="13" t="s">
         <v>69</v>
       </c>
-      <c r="D37" s="45">
-        <v>3</v>
-      </c>
-      <c r="E37" s="45">
-        <v>3</v>
-      </c>
-      <c r="F37" s="45">
-        <v>3</v>
-      </c>
-      <c r="G37" s="45">
+      <c r="D37" s="28">
+        <v>3</v>
+      </c>
+      <c r="E37" s="28">
+        <v>3</v>
+      </c>
+      <c r="F37" s="28">
+        <v>3</v>
+      </c>
+      <c r="G37" s="28">
         <v>3</v>
       </c>
       <c r="H37" s="17"/>
@@ -2128,16 +2128,16 @@
       <c r="C38" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="D38" s="45">
-        <v>3</v>
-      </c>
-      <c r="E38" s="45">
-        <v>3</v>
-      </c>
-      <c r="F38" s="45">
-        <v>3</v>
-      </c>
-      <c r="G38" s="45">
+      <c r="D38" s="28">
+        <v>3</v>
+      </c>
+      <c r="E38" s="28">
+        <v>3</v>
+      </c>
+      <c r="F38" s="28">
+        <v>3</v>
+      </c>
+      <c r="G38" s="28">
         <v>3</v>
       </c>
       <c r="H38" s="17"/>
@@ -2161,16 +2161,16 @@
       <c r="C39" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="D39" s="45">
-        <v>3</v>
-      </c>
-      <c r="E39" s="45">
-        <v>0</v>
-      </c>
-      <c r="F39" s="45">
-        <v>3</v>
-      </c>
-      <c r="G39" s="45">
+      <c r="D39" s="28">
+        <v>3</v>
+      </c>
+      <c r="E39" s="28">
+        <v>0</v>
+      </c>
+      <c r="F39" s="28">
+        <v>3</v>
+      </c>
+      <c r="G39" s="28">
         <v>3</v>
       </c>
       <c r="H39" s="17"/>
@@ -2194,16 +2194,16 @@
       <c r="C40" s="15" t="s">
         <v>77</v>
       </c>
-      <c r="D40" s="45">
-        <v>3</v>
-      </c>
-      <c r="E40" s="45">
-        <v>0</v>
-      </c>
-      <c r="F40" s="45">
-        <v>3</v>
-      </c>
-      <c r="G40" s="45">
+      <c r="D40" s="28">
+        <v>3</v>
+      </c>
+      <c r="E40" s="28">
+        <v>0</v>
+      </c>
+      <c r="F40" s="28">
+        <v>3</v>
+      </c>
+      <c r="G40" s="28">
         <v>3</v>
       </c>
       <c r="H40" s="17"/>
@@ -2227,16 +2227,16 @@
       <c r="C41" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="D41" s="45">
-        <v>0</v>
-      </c>
-      <c r="E41" s="45">
-        <v>0</v>
-      </c>
-      <c r="F41" s="45">
-        <v>0</v>
-      </c>
-      <c r="G41" s="45">
+      <c r="D41" s="28">
+        <v>0</v>
+      </c>
+      <c r="E41" s="28">
+        <v>0</v>
+      </c>
+      <c r="F41" s="28">
+        <v>0</v>
+      </c>
+      <c r="G41" s="28">
         <v>0</v>
       </c>
       <c r="H41" s="17"/>
@@ -2260,16 +2260,16 @@
       <c r="C42" s="10" t="s">
         <v>79</v>
       </c>
-      <c r="D42" s="45">
-        <v>3</v>
-      </c>
-      <c r="E42" s="45">
-        <v>0</v>
-      </c>
-      <c r="F42" s="45">
-        <v>0</v>
-      </c>
-      <c r="G42" s="45">
+      <c r="D42" s="28">
+        <v>3</v>
+      </c>
+      <c r="E42" s="28">
+        <v>0</v>
+      </c>
+      <c r="F42" s="28">
+        <v>0</v>
+      </c>
+      <c r="G42" s="28">
         <v>0</v>
       </c>
       <c r="H42" s="17"/>
@@ -2292,16 +2292,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="28" t="s">
+      <c r="C44" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="28"/>
+      <c r="D44" s="49"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="28" t="s">
+      <c r="H44" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="28"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -2321,6 +2321,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2332,16 +2342,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\niazl\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0CDA0-82F5-4A8F-BEF4-CECF7E1425EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="September" sheetId="6" r:id="rId1"/>
@@ -17,7 +18,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">September!$A$1:$K$45</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -30,6 +31,7 @@
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
         <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -291,7 +293,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
@@ -692,6 +694,16 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -719,9 +731,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -733,13 +742,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1078,12 +1080,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A19" zoomScaleNormal="85" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
+      <selection activeCell="C41" sqref="C41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1104,118 +1106,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="51" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="51"/>
-      <c r="E1" s="51"/>
-      <c r="F1" s="51"/>
-      <c r="G1" s="51"/>
-      <c r="H1" s="51"/>
-      <c r="I1" s="51"/>
+      <c r="C1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="43" t="s">
+      <c r="C2" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="43"/>
-      <c r="E2" s="43"/>
-      <c r="F2" s="43"/>
-      <c r="G2" s="43"/>
-      <c r="H2" s="43"/>
-      <c r="I2" s="43"/>
+      <c r="D2" s="47"/>
+      <c r="E2" s="47"/>
+      <c r="F2" s="47"/>
+      <c r="G2" s="47"/>
+      <c r="H2" s="47"/>
+      <c r="I2" s="47"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="50" t="s">
+      <c r="C3" s="36" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="44" t="s">
+      <c r="D3" s="36"/>
+      <c r="E3" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="44"/>
-      <c r="G3" s="44"/>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
+      <c r="F3" s="37"/>
+      <c r="G3" s="37"/>
+      <c r="H3" s="37"/>
+      <c r="I3" s="37"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="50" t="s">
+      <c r="C4" s="36" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="44" t="s">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="44"/>
-      <c r="G4" s="44"/>
-      <c r="H4" s="44"/>
-      <c r="I4" s="44"/>
+      <c r="F4" s="37"/>
+      <c r="G4" s="37"/>
+      <c r="H4" s="37"/>
+      <c r="I4" s="37"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="50" t="s">
+      <c r="C5" s="36" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="50"/>
-      <c r="E5" s="45" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="48" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45"/>
-      <c r="H5" s="45"/>
-      <c r="I5" s="45"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
+      <c r="H5" s="48"/>
+      <c r="I5" s="48"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="50" t="s">
+      <c r="C6" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="50"/>
-      <c r="E6" s="44" t="s">
+      <c r="D6" s="36"/>
+      <c r="E6" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="44"/>
-      <c r="G6" s="44"/>
-      <c r="H6" s="44"/>
-      <c r="I6" s="44"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="37"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="50" t="s">
+      <c r="C7" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="50"/>
-      <c r="E7" s="44" t="s">
+      <c r="D7" s="36"/>
+      <c r="E7" s="37" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="44"/>
-      <c r="G7" s="44"/>
-      <c r="H7" s="44"/>
-      <c r="I7" s="44"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="50" t="s">
+      <c r="C8" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="50"/>
-      <c r="E8" s="46" t="s">
+      <c r="D8" s="36"/>
+      <c r="E8" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="46"/>
-      <c r="G8" s="46"/>
-      <c r="H8" s="46"/>
-      <c r="I8" s="46"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1229,10 +1231,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
+      <c r="A10" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="37" t="s">
+      <c r="B10" s="41" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1252,16 +1254,16 @@
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="47" t="s">
+      <c r="J10" s="50" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="41" t="s">
+      <c r="K10" s="45" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="36"/>
-      <c r="B11" s="38"/>
+      <c r="A11" s="40"/>
+      <c r="B11" s="42"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1279,12 +1281,12 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="48"/>
-      <c r="K11" s="42"/>
+      <c r="J11" s="51"/>
+      <c r="K11" s="46"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="36"/>
-      <c r="B12" s="38"/>
+      <c r="A12" s="40"/>
+      <c r="B12" s="42"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1312,19 +1314,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="36"/>
-      <c r="B13" s="38"/>
+      <c r="A13" s="40"/>
+      <c r="B13" s="42"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="37"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="40"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="43"/>
+      <c r="F13" s="43"/>
+      <c r="G13" s="43"/>
+      <c r="H13" s="43"/>
+      <c r="I13" s="43"/>
+      <c r="J13" s="43"/>
+      <c r="K13" s="44"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1667,13 +1669,13 @@
         <v>48</v>
       </c>
       <c r="D24" s="17">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E24" s="28">
         <v>0</v>
       </c>
       <c r="F24" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G24" s="28">
         <v>3</v>
@@ -1682,11 +1684,11 @@
       <c r="I24" s="17"/>
       <c r="J24" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K24" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1724,7 +1726,7 @@
     </row>
     <row r="26" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B26" s="13" t="s">
         <v>36</v>
@@ -1757,7 +1759,7 @@
     </row>
     <row r="27" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B27" s="10" t="s">
         <v>37</v>
@@ -1790,7 +1792,7 @@
     </row>
     <row r="28" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="9">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B28" s="10" t="s">
         <v>51</v>
@@ -1823,7 +1825,7 @@
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="9">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B29" s="10" t="s">
         <v>52</v>
@@ -1856,7 +1858,7 @@
     </row>
     <row r="30" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B30" s="10" t="s">
         <v>53</v>
@@ -1889,7 +1891,7 @@
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B31" s="10" t="s">
         <v>54</v>
@@ -1922,7 +1924,7 @@
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B32" s="10" t="s">
         <v>55</v>
@@ -1955,7 +1957,7 @@
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="9">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B33" s="10" t="s">
         <v>56</v>
@@ -1988,7 +1990,7 @@
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="9">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B34" s="10" t="s">
         <v>57</v>
@@ -2021,7 +2023,7 @@
     </row>
     <row r="35" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="9">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B35" s="10" t="s">
         <v>58</v>
@@ -2054,7 +2056,7 @@
     </row>
     <row r="36" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B36" s="10" t="s">
         <v>59</v>
@@ -2087,7 +2089,7 @@
     </row>
     <row r="37" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="9">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B37" s="10" t="s">
         <v>60</v>
@@ -2120,7 +2122,7 @@
     </row>
     <row r="38" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="9">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B38" s="10" t="s">
         <v>71</v>
@@ -2153,7 +2155,7 @@
     </row>
     <row r="39" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="9">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B39" s="10" t="s">
         <v>72</v>
@@ -2186,7 +2188,7 @@
     </row>
     <row r="40" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="9">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>73</v>
@@ -2219,7 +2221,7 @@
     </row>
     <row r="41" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="9">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>74</v>
@@ -2252,7 +2254,7 @@
     </row>
     <row r="42" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="9">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="B42" s="10" t="s">
         <v>75</v>
@@ -2292,16 +2294,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="49" t="s">
+      <c r="C44" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="49"/>
+      <c r="D44" s="35"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="49" t="s">
+      <c r="H44" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="49"/>
+      <c r="I44" s="35"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -2321,16 +2323,6 @@
     </row>
   </sheetData>
   <mergeCells count="21">
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2342,6 +2334,16 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>

--- a/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
+++ b/2_SEPTEMBER_ATTENDANCE_SUBMITTED_DPG.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48F0CDA0-82F5-4A8F-BEF4-CECF7E1425EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F7C1258-388B-46DE-BF60-7EAB01ADD648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -694,54 +694,54 @@
     </xf>
     <xf numFmtId="164" fontId="13" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1085,7 +1085,7 @@
   <dimension ref="A1:K50"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" zoomScaleSheetLayoutView="85" workbookViewId="0">
-      <selection activeCell="C41" sqref="C41"/>
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1106,118 +1106,118 @@
     <row r="1" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1"/>
       <c r="B1" s="1"/>
-      <c r="C1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
+      <c r="C1" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="51"/>
+      <c r="E1" s="51"/>
+      <c r="F1" s="51"/>
+      <c r="G1" s="51"/>
+      <c r="H1" s="51"/>
+      <c r="I1" s="51"/>
     </row>
     <row r="2" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5"/>
       <c r="B2" s="6"/>
-      <c r="C2" s="47" t="s">
+      <c r="C2" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="47"/>
-      <c r="E2" s="47"/>
-      <c r="F2" s="47"/>
-      <c r="G2" s="47"/>
-      <c r="H2" s="47"/>
-      <c r="I2" s="47"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
+      <c r="G2" s="43"/>
+      <c r="H2" s="43"/>
+      <c r="I2" s="43"/>
     </row>
     <row r="3" spans="1:11" ht="25.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
-      <c r="C3" s="36" t="s">
+      <c r="C3" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="D3" s="36"/>
-      <c r="E3" s="37" t="s">
+      <c r="D3" s="50"/>
+      <c r="E3" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="F3" s="37"/>
-      <c r="G3" s="37"/>
-      <c r="H3" s="37"/>
-      <c r="I3" s="37"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="44"/>
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
     </row>
     <row r="4" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
-      <c r="C4" s="36" t="s">
+      <c r="C4" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="36"/>
-      <c r="E4" s="37" t="s">
+      <c r="D4" s="50"/>
+      <c r="E4" s="44" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="37"/>
-      <c r="I4" s="37"/>
+      <c r="F4" s="44"/>
+      <c r="G4" s="44"/>
+      <c r="H4" s="44"/>
+      <c r="I4" s="44"/>
     </row>
     <row r="5" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
-      <c r="C5" s="36" t="s">
+      <c r="C5" s="50" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="48" t="s">
+      <c r="D5" s="50"/>
+      <c r="E5" s="45" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45"/>
+      <c r="H5" s="45"/>
+      <c r="I5" s="45"/>
     </row>
     <row r="6" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="36" t="s">
+      <c r="C6" s="50" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="36"/>
-      <c r="E6" s="37" t="s">
+      <c r="D6" s="50"/>
+      <c r="E6" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="37"/>
+      <c r="F6" s="44"/>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44"/>
+      <c r="I6" s="44"/>
     </row>
     <row r="7" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
-      <c r="C7" s="36" t="s">
+      <c r="C7" s="50" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="36"/>
-      <c r="E7" s="37" t="s">
+      <c r="D7" s="50"/>
+      <c r="E7" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
+      <c r="F7" s="44"/>
+      <c r="G7" s="44"/>
+      <c r="H7" s="44"/>
+      <c r="I7" s="44"/>
     </row>
     <row r="8" spans="1:11" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="50" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="36"/>
-      <c r="E8" s="49" t="s">
+      <c r="D8" s="50"/>
+      <c r="E8" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
+      <c r="F8" s="46"/>
+      <c r="G8" s="46"/>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
     </row>
     <row r="9" spans="1:11" ht="12.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1231,10 +1231,10 @@
       <c r="I9" s="1"/>
     </row>
     <row r="10" spans="1:11" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="39" t="s">
+      <c r="A10" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="37" t="s">
         <v>2</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -1254,16 +1254,16 @@
       </c>
       <c r="H10" s="20"/>
       <c r="I10" s="20"/>
-      <c r="J10" s="50" t="s">
+      <c r="J10" s="47" t="s">
         <v>9</v>
       </c>
-      <c r="K10" s="45" t="s">
+      <c r="K10" s="41" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:11" ht="36.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="40"/>
-      <c r="B11" s="42"/>
+      <c r="A11" s="36"/>
+      <c r="B11" s="38"/>
       <c r="C11" s="20" t="s">
         <v>13</v>
       </c>
@@ -1281,12 +1281,12 @@
       </c>
       <c r="H11" s="24"/>
       <c r="I11" s="24"/>
-      <c r="J11" s="51"/>
-      <c r="K11" s="46"/>
+      <c r="J11" s="48"/>
+      <c r="K11" s="42"/>
     </row>
     <row r="12" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="40"/>
-      <c r="B12" s="42"/>
+      <c r="A12" s="36"/>
+      <c r="B12" s="38"/>
       <c r="C12" s="23" t="s">
         <v>10</v>
       </c>
@@ -1314,19 +1314,19 @@
       </c>
     </row>
     <row r="13" spans="1:11" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="40"/>
-      <c r="B13" s="42"/>
+      <c r="A13" s="36"/>
+      <c r="B13" s="38"/>
       <c r="C13" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="D13" s="41"/>
-      <c r="E13" s="43"/>
-      <c r="F13" s="43"/>
-      <c r="G13" s="43"/>
-      <c r="H13" s="43"/>
-      <c r="I13" s="43"/>
-      <c r="J13" s="43"/>
-      <c r="K13" s="44"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="39"/>
+      <c r="F13" s="39"/>
+      <c r="G13" s="39"/>
+      <c r="H13" s="39"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="39"/>
+      <c r="K13" s="40"/>
     </row>
     <row r="14" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9">
@@ -1609,20 +1609,20 @@
         <v>3</v>
       </c>
       <c r="F22" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G22" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H22" s="17"/>
       <c r="I22" s="17"/>
       <c r="J22" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="K22" s="21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>100</v>
       </c>
     </row>
     <row r="23" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1807,20 +1807,20 @@
         <v>3</v>
       </c>
       <c r="F28" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G28" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H28" s="10"/>
       <c r="I28" s="10"/>
       <c r="J28" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="K28" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>75</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1876,17 +1876,17 @@
         <v>0</v>
       </c>
       <c r="G30" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H30" s="17"/>
       <c r="I30" s="17"/>
       <c r="J30" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K30" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1909,17 +1909,17 @@
         <v>0</v>
       </c>
       <c r="G31" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H31" s="17"/>
       <c r="I31" s="17"/>
       <c r="J31" s="8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="K31" s="21">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>25</v>
       </c>
     </row>
     <row r="32" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1942,17 +1942,17 @@
         <v>0</v>
       </c>
       <c r="G32" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H32" s="17"/>
       <c r="I32" s="17"/>
       <c r="J32" s="8">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="K32" s="21">
         <f t="shared" si="0"/>
-        <v>50</v>
+        <v>75</v>
       </c>
     </row>
     <row r="33" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1975,17 +1975,17 @@
         <v>0</v>
       </c>
       <c r="G33" s="28">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="8">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="K33" s="21">
         <f t="shared" si="0"/>
-        <v>25</v>
+        <v>50</v>
       </c>
     </row>
     <row r="34" spans="1:11" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2294,16 +2294,16 @@
       <c r="I43" s="11"/>
     </row>
     <row r="44" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="C44" s="35" t="s">
+      <c r="C44" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="D44" s="35"/>
+      <c r="D44" s="49"/>
       <c r="F44" s="3"/>
       <c r="G44" s="3"/>
-      <c r="H44" s="35" t="s">
+      <c r="H44" s="49" t="s">
         <v>16</v>
       </c>
-      <c r="I44" s="35"/>
+      <c r="I44" s="49"/>
     </row>
     <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="F45" s="3"/>
@@ -2323,6 +2323,16 @@
     </row>
   </sheetData>
   <mergeCells count="21">
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="H44:I44"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:I3"/>
+    <mergeCell ref="C1:I1"/>
+    <mergeCell ref="C4:D4"/>
+    <mergeCell ref="C5:D5"/>
+    <mergeCell ref="C6:D6"/>
+    <mergeCell ref="C8:D8"/>
+    <mergeCell ref="C7:D7"/>
     <mergeCell ref="A10:A13"/>
     <mergeCell ref="B10:B13"/>
     <mergeCell ref="D13:K13"/>
@@ -2334,16 +2344,6 @@
     <mergeCell ref="E6:I6"/>
     <mergeCell ref="E8:I8"/>
     <mergeCell ref="J10:J11"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="H44:I44"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:I3"/>
-    <mergeCell ref="C1:I1"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C7:D7"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.59055118110236204" right="0" top="0" bottom="0.98425196850393704" header="0.59055118110236204" footer="0.39370078740157499"/>
